--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/金融机构部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/金融机构部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,11 +603,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.290223630379</v>
+        <v>2957.6847364139</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -615,30 +615,28 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>794.4035518519451</v>
+        <v>14582.482862949</v>
       </c>
       <c r="I2" t="n">
-        <v>5492.70909212366</v>
+        <v>29170.4439357845</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>517.5861025962949</v>
+        <v>13206.5463731407</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>4086.68576474315</v>
+        <v>20980.6</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>517.5861025962949</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
+        <v>13206.5463731407</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -649,27 +647,25 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>31.7</v>
+        <v>545.999968104496</v>
       </c>
       <c r="AE2" t="n">
-        <v>144.290223630379</v>
+        <v>2957.6847364139</v>
       </c>
       <c r="AF2" t="n">
-        <v>5524.40909212365</v>
+        <v>29716.443903889</v>
       </c>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.020454069167</v>
+        <v>3311.12480439104</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -677,30 +673,28 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1504.543442533</v>
+        <v>17358.5813607791</v>
       </c>
       <c r="I3" t="n">
-        <v>5326.61108211733</v>
+        <v>42808.7356404234</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1254.41849222103</v>
+        <v>15179.1828130707</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>4353.45639068385</v>
+        <v>24958.2885605877</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1254.41849222103</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
+        <v>15179.1828130707</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -711,27 +705,25 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>54.84</v>
+        <v>620.4350558031909</v>
       </c>
       <c r="AE3" t="n">
-        <v>276.020454069167</v>
+        <v>3311.12480439104</v>
       </c>
       <c r="AF3" t="n">
-        <v>5381.45108211733</v>
+        <v>43429.1706962266</v>
       </c>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
-        <v>2</v>
-      </c>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446.643722465464</v>
+        <v>3703.27059932646</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -739,26 +731,26 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2027.69524278667</v>
+        <v>20753.0222177836</v>
       </c>
       <c r="I4" t="n">
-        <v>5313.74685267476</v>
+        <v>53860.0372049868</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1927.53026914359</v>
+        <v>16855.3536452268</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>4612.80072887727</v>
+        <v>28722.6805400334</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>1927.53026914359</v>
+        <v>16855.3536452268</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -770,12 +762,14 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>752.358153579394</v>
+      </c>
       <c r="AE4" t="n">
-        <v>446.643722465464</v>
+        <v>3703.27059932646</v>
       </c>
       <c r="AF4" t="n">
-        <v>5313.74685267476</v>
+        <v>54612.3953585662</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -783,11 +777,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.4678146514</v>
+        <v>4274.86784836522</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -795,26 +789,26 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>2944.74684486838</v>
+        <v>19865.7802660949</v>
       </c>
       <c r="I5" t="n">
-        <v>6193.34426578417</v>
+        <v>41887.0787319818</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2866.88894324357</v>
+        <v>14963.2021241996</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>4989.39631599657</v>
+        <v>41190.4705107812</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2866.88894324357</v>
+        <v>14963.2021241996</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -826,12 +820,14 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>760.720774140386</v>
+      </c>
       <c r="AE5" t="n">
-        <v>568.4678146514</v>
+        <v>4274.86784836522</v>
       </c>
       <c r="AF5" t="n">
-        <v>6193.34426578417</v>
+        <v>42647.7995061222</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
@@ -839,11 +835,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761.787022866881</v>
+        <v>4665.57653267262</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -851,26 +847,26 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3071.89861998315</v>
+        <v>21909.252519614</v>
       </c>
       <c r="I6" t="n">
-        <v>6989.04253759101</v>
+        <v>47897.3552728753</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3075.63124223196</v>
+        <v>15932.8073546868</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>5392.97481906784</v>
+        <v>46665.1789541209</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>3075.63124223196</v>
+        <v>15932.8073546868</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -882,12 +878,14 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>1003.91885789465</v>
+      </c>
       <c r="AE6" t="n">
-        <v>761.787022866881</v>
+        <v>4665.57653267262</v>
       </c>
       <c r="AF6" t="n">
-        <v>6989.04253759101</v>
+        <v>48901.2741307699</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -895,11 +893,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>885.657003527777</v>
+        <v>4847.74922626911</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -907,26 +905,26 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>3494.23864984257</v>
+        <v>30227.3502546544</v>
       </c>
       <c r="I7" t="n">
-        <v>8248.985819579189</v>
+        <v>51058.6157513462</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3100.65233799953</v>
+        <v>22662.2941853957</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>6086.8262039027</v>
+        <v>57872.6183357316</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>3100.65233799953</v>
+        <v>22662.2941853957</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -938,12 +936,14 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>888.705233118651</v>
+      </c>
       <c r="AE7" t="n">
-        <v>885.657003527777</v>
+        <v>4847.74922626911</v>
       </c>
       <c r="AF7" t="n">
-        <v>8248.985819579189</v>
+        <v>51947.3209844649</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -951,11 +951,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089.93574262879</v>
+        <v>5439.5678381607</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -963,26 +963,26 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>5223.88461896455</v>
+        <v>37624.2667622186</v>
       </c>
       <c r="I8" t="n">
-        <v>13242.2669414866</v>
+        <v>52735.8665341929</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4303.43575766298</v>
+        <v>29616.8952708495</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>8099.08219302342</v>
+        <v>61121.7186288761</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>4303.43575766298</v>
+        <v>29616.8952708495</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -994,12 +994,14 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>863.262680079238</v>
+      </c>
       <c r="AE8" t="n">
-        <v>1089.93574262879</v>
+        <v>5439.5678381607</v>
       </c>
       <c r="AF8" t="n">
-        <v>13242.2669414866</v>
+        <v>53599.1292142722</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1007,11 +1009,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1352.94132437372</v>
+        <v>6278.57870442782</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1019,26 +1021,26 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6824.38776262357</v>
+        <v>41083.9552749946</v>
       </c>
       <c r="I9" t="n">
-        <v>16543.0771280261</v>
+        <v>56198.225886809</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5284.52597316505</v>
+        <v>34637.9308529993</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>12337.5493090995</v>
+        <v>65394.9746597595</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>5284.52597316505</v>
+        <v>34637.9308529993</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1050,12 +1052,14 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>1586.29090675092</v>
+      </c>
       <c r="AE9" t="n">
-        <v>1352.94132437372</v>
+        <v>6278.57870442782</v>
       </c>
       <c r="AF9" t="n">
-        <v>16543.0771280261</v>
+        <v>57784.51679356</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
@@ -1063,11 +1067,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1506.32269491599</v>
+        <v>6039.69110642239</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,26 +1079,26 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>9476.510824881359</v>
+        <v>33269.0282048108</v>
       </c>
       <c r="I10" t="n">
-        <v>23463.6993865659</v>
+        <v>58942.6388269033</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7106.18003534493</v>
+        <v>25718.6869067447</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>14863.2504955693</v>
+        <v>70610.25629028679</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>7106.18003534493</v>
+        <v>25718.6869067447</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1107,13 +1111,13 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>395.766990960216</v>
+        <v>967.084810852306</v>
       </c>
       <c r="AE10" t="n">
-        <v>1506.32269491599</v>
+        <v>6039.69110642239</v>
       </c>
       <c r="AF10" t="n">
-        <v>23859.4663775261</v>
+        <v>59909.7236377556</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
@@ -1121,11 +1125,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2270.03222498094</v>
+        <v>7250.46594156138</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1133,26 +1137,26 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>10894.3999295537</v>
+        <v>34833.4342555421</v>
       </c>
       <c r="I11" t="n">
-        <v>22645.2746903496</v>
+        <v>67931.12675333041</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8405.698164798559</v>
+        <v>26706.3726450836</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>17767.5261897921</v>
+        <v>76250.6468571406</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>8405.698164798559</v>
+        <v>26706.3726450836</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1165,13 +1169,13 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>404.628040073551</v>
+        <v>1228.82395198502</v>
       </c>
       <c r="AE11" t="n">
-        <v>2270.03222498094</v>
+        <v>7250.46594156138</v>
       </c>
       <c r="AF11" t="n">
-        <v>23049.9027304231</v>
+        <v>69159.95070531539</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
@@ -1179,11 +1183,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2957.6847364139</v>
+        <v>6969.48986267583</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1191,26 +1195,26 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>14582.482862949</v>
+        <v>44512.1227486533</v>
       </c>
       <c r="I12" t="n">
-        <v>29170.4439357845</v>
+        <v>74015.06873454691</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>13206.5463731407</v>
+        <v>35453.2407956004</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>20980.6</v>
+        <v>83617.72371092399</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>13206.5463731407</v>
+        <v>35453.2407956004</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1223,13 +1227,13 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>545.999968104496</v>
+        <v>2714.6178418761</v>
       </c>
       <c r="AE12" t="n">
-        <v>2957.6847364139</v>
+        <v>6969.48986267583</v>
       </c>
       <c r="AF12" t="n">
-        <v>29716.443903889</v>
+        <v>76729.686576423</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
@@ -1237,11 +1241,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3311.12480439104</v>
+        <v>7167.84809747987</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1249,26 +1253,26 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>17358.5813607791</v>
+        <v>44926.4194546336</v>
       </c>
       <c r="I13" t="n">
-        <v>42808.7356404234</v>
+        <v>82944.6874044649</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>15179.1828130707</v>
+        <v>35089.4558411071</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>24958.2885605877</v>
+        <v>90308.6981093264</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>15179.1828130707</v>
+        <v>35089.4558411071</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1281,480 +1285,16 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>620.4350558031909</v>
+        <v>3112.8133006202</v>
       </c>
       <c r="AE13" t="n">
-        <v>3311.12480439104</v>
+        <v>7167.84809747987</v>
       </c>
       <c r="AF13" t="n">
-        <v>43429.1706962266</v>
+        <v>86057.5007050851</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3703.27059932646</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>20753.0222177836</v>
-      </c>
-      <c r="I14" t="n">
-        <v>53860.0372049868</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>16855.3536452268</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>28722.6805400334</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>16855.3536452268</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>752.358153579394</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3703.27059932646</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>54612.3953585662</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4274.86784836522</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>19865.7802660949</v>
-      </c>
-      <c r="I15" t="n">
-        <v>41887.0787319818</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>14963.2021241996</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>41190.4705107812</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>14963.2021241996</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>760.720774140386</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>4274.86784836522</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>42647.7995061222</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4665.57653267262</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>21909.252519614</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47897.3552728753</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>15932.8073546868</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>46665.1789541209</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>15932.8073546868</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>1003.91885789465</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>4665.57653267262</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>48901.2741307699</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4847.74922626911</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>30227.3502546544</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51058.6157513462</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>22662.2941853957</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>57872.6183357316</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>22662.2941853957</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>888.705233118651</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>4847.74922626911</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51947.3209844649</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5439.5678381607</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>37624.2667622186</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52735.8665341929</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>29616.8952708495</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>61121.7186288761</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>29616.8952708495</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>863.262680079238</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>5439.5678381607</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>53599.1292142722</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6278.57870442782</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>41083.9552749946</v>
-      </c>
-      <c r="I19" t="n">
-        <v>56198.225886809</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>34637.9308529993</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>65394.9746597595</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>34637.9308529993</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>1586.29090675092</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>6278.57870442782</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>57784.51679356</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6039.69110642239</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>33269.0282048108</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58942.6388269033</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>25718.6869067447</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>70610.25629028679</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>25718.6869067447</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>967.084810852306</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>6039.69110642239</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>59909.7236377556</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7250.46594156138</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>34833.4342555421</v>
-      </c>
-      <c r="I21" t="n">
-        <v>67931.12675333041</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>26706.3726450836</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>76250.6468571406</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>26706.3726450836</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>1228.82395198502</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>7250.46594156138</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>69159.95070531539</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
